--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_023.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_023.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295037EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Maintaining heat sinks external to the containment</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295003AK1.08) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Emergency diesel generator load limits</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295019AA1.02) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) System valves</t>
-  </si>
-  <si>
-    <t>(295025EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
-  </si>
-  <si>
-    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
-  </si>
-  <si>
-    <t>(295021AK2.03) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) RHR/shutdown cooling</t>
-  </si>
-  <si>
-    <t>(295005AA1.03) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295026EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295030EK2.05) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295016AA1.09) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Isolation condensers (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
-  </si>
-  <si>
-    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
-  </si>
-  <si>
-    <t>(295029EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295033EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Operating ventilation systems</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
-  </si>
-  <si>
-    <t>(215005K4.08) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Sampling of overall core power in each APRM</t>
-  </si>
-  <si>
-    <t>(264000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Cooling water system</t>
-  </si>
-  <si>
-    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
-  </si>
-  <si>
-    <t>(223002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
-  </si>
-  <si>
-    <t>(510000K3.16) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system temperature</t>
-  </si>
-  <si>
-    <t>(217000A2.11) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(215003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(209002K4.02) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of overfilling reactor vessel</t>
-  </si>
-  <si>
-    <t>(300000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+    <t>(295001AK2.09) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295021AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Thermal stratification</t>
+  </si>
+  <si>
+    <t>(295006AA1.03) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
+  </si>
+  <si>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(295027EK2.02) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Components internal to the containment</t>
+  </si>
+  <si>
+    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
+  </si>
+  <si>
+    <t>(295026EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(295025EK2.05) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295030EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Downcomer/horizontal vent submergence</t>
+  </si>
+  <si>
+    <t>(295038EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Meteorological instrumentation</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295029EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Lowering suppression pool water level</t>
+  </si>
+  <si>
+    <t>(295032EK2.05) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Temperature sensitive instrumentation</t>
+  </si>
+  <si>
+    <t>(295014AK1.11) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Thermal-hydraulic instability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295034EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) SGTS/FRVS </t>
+  </si>
+  <si>
+    <t>(215003A4.06) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Detector drives</t>
+  </si>
+  <si>
+    <t>(262001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offsite power system</t>
+  </si>
+  <si>
+    <t>(261000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Trips and isolations</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
+  </si>
+  <si>
+    <t>(239002K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(209001K4.04) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Line break detection</t>
+  </si>
+  <si>
+    <t>(209002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
+  </si>
+  <si>
+    <t>(223002A2.07) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Various process instrumentation failures</t>
+  </si>
+  <si>
+    <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
+  </si>
+  <si>
+    <t>(212000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment and auxiliaries</t>
+  </si>
+  <si>
+    <t>(264000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Battery charger</t>
+  </si>
+  <si>
+    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291004K1.19) PUMPS (CFR: 41.3) (CENTRIFUGAL) Safety procedure and precautions associated with centrifugal pumps</t>
   </si>
   <si>
     <t>(263000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Battery charger and battery</t>
   </si>
   <si>
-    <t>(205000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump/system discharge pressure</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(215004K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(218000A2.05) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of electrical power to ADS</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291006K1.09) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Definition of thermal shock</t>
-  </si>
-  <si>
-    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
-  </si>
-  <si>
-    <t>(215005K4.05) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Alarm seal-in</t>
-  </si>
-  <si>
-    <t>(264000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Ignition system</t>
-  </si>
-  <si>
-    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
-  </si>
-  <si>
-    <t>(400000K3.04) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Service water system</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(233000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety-related service water</t>
-  </si>
-  <si>
-    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(510001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Cooling tower level control valve malfunction</t>
-  </si>
-  <si>
-    <t>(201001A3.08) Ability to monitor automatic operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.9 / 45.1-6 / 45.8 / 45.12-13) Drive water flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
-  </si>
-  <si>
-    <t>(259001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Feedwater heaters, including heater drain pumps</t>
-  </si>
-  <si>
-    <t>(216000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION including: (CFR: 41.5 / 45.5) RPV level</t>
-  </si>
-  <si>
-    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
-  </si>
-  <si>
-    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(241000A2.09) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of generator load</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
-  </si>
-  <si>
-    <t>(293009K1.33) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Describe the purpose of the pellet to clad gap</t>
-  </si>
-  <si>
-    <t>(293006K1.06) FLUID STATICS AND DYNAMICS (CFR: 41.14) Discuss methods of prevention of fluid/water hammer</t>
-  </si>
-  <si>
-    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.08) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(217000A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Rupture disc failure: exhaust-diaphragm</t>
-  </si>
-  <si>
-    <t>(234000A4.01) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(202001A2.10) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation pump seal failure (reference potential)</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(203000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(300000K4.03) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Compressor automatic starts/trips</t>
+  </si>
+  <si>
+    <t>(259002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(215005A2.12) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Operation of the OPRM-enabled region of the power to flow map</t>
+  </si>
+  <si>
+    <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
+  </si>
+  <si>
+    <t>(262001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(261000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment high pressure</t>
+  </si>
+  <si>
+    <t>(217000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Automatic flow control</t>
+  </si>
+  <si>
+    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
+  </si>
+  <si>
+    <t>(241000A2.17) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
+  </si>
+  <si>
+    <t>(216000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) MSIV leakage control system</t>
+  </si>
+  <si>
+    <t>(223001K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Backup hydrogen purge</t>
+  </si>
+  <si>
+    <t>(201003K4.07) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Maintaining the control rod at a given position</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(202002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Fluid coupling (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(288000K3.08) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Turbine building differential pressure</t>
+  </si>
+  <si>
+    <t>(259001K4.03) Knowledge of (SF2 FWS) FEEDWATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) RFP minimum flow</t>
+  </si>
+  <si>
+    <t>(510001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Circulating water flow</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
+  </si>
+  <si>
+    <t>(293006K1.11) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define net positive suction head (NPSH)</t>
+  </si>
+  <si>
+    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
+  </si>
+  <si>
+    <t>(293007K1.06) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Discuss the factors that affect heat transfer rate in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AA2.05) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Jet pump operability </t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295022AA2.04) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA2.01) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(215004A2.04) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale and downscale trips</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209002A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(201001A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295038</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295029</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>230000</t>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>201001</t>
   </si>
   <si>
     <t>233000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>290003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
         <v>107</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1633,7 +1633,7 @@
         <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
         <v>107</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1922,7 +1922,7 @@
         <v>2.9</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D64" t="s">
         <v>107</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2296,7 +2296,7 @@
         <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2330,7 +2330,7 @@
         <v>3.6</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2466,7 +2466,7 @@
         <v>3.6</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
